--- a/Data/10. 채용 설명회.xlsx
+++ b/Data/10. 채용 설명회.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\학교\3학년(4.5)(2023)\2학기\데이터베이스프로그래밍\과제\팀프로젝트\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고병철\Desktop\GitKraken\DatabaseProgrammingTeamProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A494F5-9A77-4E16-9250-E462432D725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D8B4C9-D097-4522-8894-220F3E5C8073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15525" yWindow="3900" windowWidth="10140" windowHeight="10170" xr2:uid="{4E106E8F-9BBD-471B-9E71-99E12538C418}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E106E8F-9BBD-471B-9E71-99E12538C418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -956,7 +956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAFCB93-43E6-4963-8A74-BF2C10998245}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -995,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>45084</v>
+        <v>45292</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1012,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>45107</v>
+        <v>45293</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -1029,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>45075</v>
+        <v>45294</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -1046,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>45073</v>
+        <v>45295</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -1063,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>45091</v>
+        <v>45296</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -1080,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>45098</v>
+        <v>45297</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -1097,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>45076</v>
+        <v>45298</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -1114,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>45093</v>
+        <v>45299</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -1131,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>45086</v>
+        <v>45300</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1148,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2">
-        <v>45123</v>
+        <v>45301</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>69</v>
@@ -1165,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>45090</v>
+        <v>45302</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
@@ -1182,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>45075</v>
+        <v>45303</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>67</v>
@@ -1199,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>45076</v>
+        <v>45304</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -1216,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>45107</v>
+        <v>45305</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>66</v>
@@ -1233,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>45108</v>
+        <v>45306</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>82</v>
@@ -1250,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="2">
-        <v>45114</v>
+        <v>45307</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>78</v>
@@ -1267,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="2">
-        <v>45144</v>
+        <v>45308</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>76</v>
@@ -1284,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>45192</v>
+        <v>45309</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>83</v>
@@ -1301,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>45137</v>
+        <v>45310</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>70</v>
@@ -1318,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>45139</v>
+        <v>45311</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>77</v>
@@ -1335,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>45137</v>
+        <v>45312</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>73</v>
@@ -1352,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>45092</v>
+        <v>45313</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>84</v>
@@ -1369,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>45077</v>
+        <v>45314</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>85</v>
@@ -1386,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>45173</v>
+        <v>45315</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>71</v>
